--- a/June 7 Data.xlsx
+++ b/June 7 Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maribeth McCook\Documents\R Projects\PNT-Spring22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBC9E86-B36C-49DD-8C02-BA495FD3AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E84973-70B5-4F8A-B42D-4D6BAEBB0FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,7 +457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>18</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>17</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
